--- a/test-cases/eCard_testovacie karty.xlsx
+++ b/test-cases/eCard_testovacie karty.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF0CDA6-F3FE-4519-A2E0-22E6117FE64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eCard_testovacie karty" sheetId="1" r:id="rId1"/>
@@ -14,15 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Číslo testovacej platobnej karty</t>
-  </si>
-  <si>
-    <t>Expirácia karty</t>
-  </si>
-  <si>
-    <t>3-D Secure autentifikačný kód</t>
   </si>
   <si>
     <r>
@@ -67,9 +62,6 @@
     <t>4140851208765007</t>
   </si>
   <si>
-    <t>secret7</t>
-  </si>
-  <si>
     <t>4333329515035114</t>
   </si>
   <si>
@@ -85,9 +77,6 @@
     <t>5488661591465009</t>
   </si>
   <si>
-    <t>secret9</t>
-  </si>
-  <si>
     <t>4333329515035130</t>
   </si>
   <si>
@@ -160,33 +149,9 @@
     <t>"001"</t>
   </si>
   <si>
-    <t>"002"</t>
-  </si>
-  <si>
-    <t>"505"</t>
-  </si>
-  <si>
     <t>"050"</t>
   </si>
   <si>
-    <t>"003"</t>
-  </si>
-  <si>
-    <t>"004"</t>
-  </si>
-  <si>
-    <t>"005"</t>
-  </si>
-  <si>
-    <t>"006"</t>
-  </si>
-  <si>
-    <t>"007"</t>
-  </si>
-  <si>
-    <t>"008"</t>
-  </si>
-  <si>
     <t>"0001"</t>
   </si>
   <si>
@@ -194,13 +159,25 @@
   </si>
   <si>
     <t>"000"</t>
+  </si>
+  <si>
+    <t>*3d secure deaktivovane</t>
+  </si>
+  <si>
+    <t>TESTOVACIE KARTY</t>
+  </si>
+  <si>
+    <t>Exspirácia karty</t>
+  </si>
+  <si>
+    <t>"208"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +225,24 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +255,12 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -317,10 +316,106 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -332,146 +427,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -486,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,52 +481,50 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,14 +533,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,6 +560,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -620,7 +611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,9 +644,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,6 +696,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -863,390 +888,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="2:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="17">
-        <v>42613</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="10">
+        <v>44926</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="15">
+        <v>46022</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="6">
-        <v>42674</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="15">
+        <v>45747</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="15">
+        <v>45838</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="6">
-        <v>44196</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43921</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="C19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="7" t="s">
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="23">
+        <v>44926</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="6">
-        <v>44012</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="6">
-        <v>42673</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="13">
-        <v>42613</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B2 F12 B3:B14 B16:B18" numberStoredAsText="1"/>
+    <ignoredError sqref="B4 E14 B5:B17 B18:B20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>